--- a/database/industries/kashi/kesave/product/quarterly_seprated.xlsx
+++ b/database/industries/kashi/kesave/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kesave\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0037D8FF-9F01-4FD0-8D99-306F5FF3F25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E930ABD-EC4E-43A8-B5EA-560ED47CEA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="57">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -654,16 +669,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I115"/>
+  <dimension ref="B1:N115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -672,8 +687,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -684,8 +704,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -696,8 +721,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -706,8 +736,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -718,8 +753,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -730,8 +770,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -740,8 +785,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -762,8 +812,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -772,10 +837,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -784,152 +854,247 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11">
         <v>375848</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>416413</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>393134</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13">
+        <v>18</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13">
         <v>313731</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>270260</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>252633</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
+      <c r="E13" s="11">
+        <v>582460</v>
+      </c>
+      <c r="F13" s="11">
+        <v>494755</v>
       </c>
       <c r="G13" s="11">
+        <v>394351</v>
+      </c>
+      <c r="H13" s="11">
+        <v>356452</v>
+      </c>
+      <c r="I13" s="11">
+        <v>415496</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11">
         <v>339419</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>482944</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>427202</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>12</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
+        <v>866994</v>
+      </c>
+      <c r="F14" s="13">
+        <v>690665</v>
+      </c>
+      <c r="G14" s="13">
+        <v>850422</v>
+      </c>
+      <c r="H14" s="13">
+        <v>751876</v>
+      </c>
+      <c r="I14" s="13">
+        <v>905293</v>
+      </c>
+      <c r="J14" s="13">
         <v>884975</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="11">
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="11">
         <v>1888410</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15">
+        <v>1449454</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1185420</v>
+      </c>
+      <c r="G16" s="15">
+        <v>1244773</v>
+      </c>
+      <c r="H16" s="15">
+        <v>1108328</v>
+      </c>
+      <c r="I16" s="15">
+        <v>1320789</v>
+      </c>
+      <c r="J16" s="15">
         <v>884975</v>
       </c>
-      <c r="F16" s="15">
+      <c r="K16" s="15">
         <v>1888410</v>
       </c>
-      <c r="G16" s="15">
+      <c r="L16" s="15">
         <v>1028998</v>
       </c>
-      <c r="H16" s="15">
+      <c r="M16" s="15">
         <v>1169617</v>
       </c>
-      <c r="I16" s="15">
+      <c r="N16" s="15">
         <v>1072969</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -938,152 +1103,247 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="11">
+        <v>18</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="11">
         <v>355993</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>376333</v>
       </c>
-      <c r="I18" s="11">
+      <c r="N18" s="11">
         <v>509492</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="13">
+        <v>18</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="13">
         <v>977649</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>1238299</v>
       </c>
-      <c r="I19" s="13">
+      <c r="N19" s="13">
         <v>1300521</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>13</v>
+      <c r="E20" s="11">
+        <v>352973</v>
+      </c>
+      <c r="F20" s="11">
+        <v>280427</v>
       </c>
       <c r="G20" s="11">
+        <v>336380</v>
+      </c>
+      <c r="H20" s="11">
+        <v>246174</v>
+      </c>
+      <c r="I20" s="11">
+        <v>329927</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="11">
         <v>260792</v>
       </c>
-      <c r="H20" s="11">
+      <c r="M20" s="11">
         <v>217770</v>
       </c>
-      <c r="I20" s="11">
+      <c r="N20" s="11">
         <v>178538</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>12</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>1456842</v>
+      </c>
+      <c r="F21" s="13">
+        <v>3582517</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1557530</v>
+      </c>
+      <c r="H21" s="13">
+        <v>1127917</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1585603</v>
+      </c>
+      <c r="J21" s="13">
         <v>1505027</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="11">
+      <c r="E22" s="11">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="11">
         <v>1251485</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
+        <v>1809815</v>
+      </c>
+      <c r="F23" s="15">
+        <v>3862944</v>
+      </c>
+      <c r="G23" s="15">
+        <v>1893910</v>
+      </c>
+      <c r="H23" s="15">
+        <v>1374091</v>
+      </c>
+      <c r="I23" s="15">
+        <v>1915530</v>
+      </c>
+      <c r="J23" s="15">
         <v>1505027</v>
       </c>
-      <c r="F23" s="15">
+      <c r="K23" s="15">
         <v>1251485</v>
       </c>
-      <c r="G23" s="15">
+      <c r="L23" s="15">
         <v>1594434</v>
       </c>
-      <c r="H23" s="15">
+      <c r="M23" s="15">
         <v>1832402</v>
       </c>
-      <c r="I23" s="15">
+      <c r="N23" s="15">
         <v>1988551</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -1092,10 +1352,15 @@
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -1114,42 +1379,72 @@
       <c r="I25" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="19">
+        <v>0</v>
+      </c>
+      <c r="K25" s="19">
+        <v>0</v>
+      </c>
+      <c r="L25" s="19">
+        <v>0</v>
+      </c>
+      <c r="M25" s="19">
+        <v>0</v>
+      </c>
+      <c r="N25" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D26" s="15"/>
-      <c r="E26" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>13</v>
+      <c r="E26" s="15">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15">
+        <v>0</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>13</v>
+      <c r="E27" s="19">
+        <v>0</v>
+      </c>
+      <c r="F27" s="19">
+        <v>0</v>
       </c>
       <c r="G27" s="19">
         <v>0</v>
@@ -1160,30 +1455,60 @@
       <c r="I27" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="19">
+        <v>0</v>
+      </c>
+      <c r="M27" s="19">
+        <v>0</v>
+      </c>
+      <c r="N27" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15">
+        <v>3259269</v>
+      </c>
+      <c r="F28" s="15">
+        <v>5048364</v>
+      </c>
+      <c r="G28" s="15">
+        <v>3138683</v>
+      </c>
+      <c r="H28" s="15">
+        <v>2482419</v>
+      </c>
+      <c r="I28" s="15">
+        <v>3236319</v>
+      </c>
+      <c r="J28" s="15">
         <v>2390002</v>
       </c>
-      <c r="F28" s="15">
+      <c r="K28" s="15">
         <v>3139895</v>
       </c>
-      <c r="G28" s="15">
+      <c r="L28" s="15">
         <v>2623432</v>
       </c>
-      <c r="H28" s="15">
+      <c r="M28" s="15">
         <v>3002019</v>
       </c>
-      <c r="I28" s="15">
+      <c r="N28" s="15">
         <v>3061520</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1192,8 +1517,13 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1202,8 +1532,13 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1212,10 +1547,15 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -1234,8 +1574,23 @@
       <c r="I32" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1244,10 +1599,15 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -1256,152 +1616,247 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="11">
+        <v>18</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="11">
         <v>564102</v>
       </c>
-      <c r="H35" s="11">
+      <c r="M35" s="11">
         <v>791675</v>
       </c>
-      <c r="I35" s="11">
+      <c r="N35" s="11">
         <v>793697</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="13">
+        <v>18</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="13">
         <v>353472</v>
       </c>
-      <c r="H36" s="13">
+      <c r="M36" s="13">
         <v>323708</v>
       </c>
-      <c r="I36" s="13">
+      <c r="N36" s="13">
         <v>297047</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D37" s="11"/>
-      <c r="E37" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>13</v>
+      <c r="E37" s="11">
+        <v>69824</v>
+      </c>
+      <c r="F37" s="11">
+        <v>84390</v>
       </c>
       <c r="G37" s="11">
+        <v>74262</v>
+      </c>
+      <c r="H37" s="11">
+        <v>64904</v>
+      </c>
+      <c r="I37" s="11">
+        <v>70816</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="11">
         <v>83886</v>
       </c>
-      <c r="H37" s="11">
+      <c r="M37" s="11">
         <v>116946</v>
       </c>
-      <c r="I37" s="11">
+      <c r="N37" s="11">
         <v>120681</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
+        <v>507778</v>
+      </c>
+      <c r="F38" s="13">
+        <v>460307</v>
+      </c>
+      <c r="G38" s="13">
+        <v>810511</v>
+      </c>
+      <c r="H38" s="13">
+        <v>672053</v>
+      </c>
+      <c r="I38" s="13">
+        <v>961031</v>
+      </c>
+      <c r="J38" s="13">
         <v>536203</v>
       </c>
-      <c r="F38" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D39" s="11"/>
-      <c r="E39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="11">
+      <c r="E39" s="11">
+        <v>0</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="11">
         <v>2278587</v>
       </c>
-      <c r="G39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15">
+        <v>577602</v>
+      </c>
+      <c r="F40" s="15">
+        <v>544697</v>
+      </c>
+      <c r="G40" s="15">
+        <v>884773</v>
+      </c>
+      <c r="H40" s="15">
+        <v>736957</v>
+      </c>
+      <c r="I40" s="15">
+        <v>1031847</v>
+      </c>
+      <c r="J40" s="15">
         <v>536203</v>
       </c>
-      <c r="F40" s="15">
+      <c r="K40" s="15">
         <v>2278587</v>
       </c>
-      <c r="G40" s="15">
+      <c r="L40" s="15">
         <v>1001460</v>
       </c>
-      <c r="H40" s="15">
+      <c r="M40" s="15">
         <v>1232329</v>
       </c>
-      <c r="I40" s="15">
+      <c r="N40" s="15">
         <v>1211425</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -1410,152 +1865,247 @@
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="11">
+        <v>18</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="11">
         <v>403920</v>
       </c>
-      <c r="H42" s="11">
+      <c r="M42" s="11">
         <v>519600</v>
       </c>
-      <c r="I42" s="11">
+      <c r="N42" s="11">
         <v>816532</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="13">
+        <v>18</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="13">
         <v>858931</v>
       </c>
-      <c r="H43" s="13">
+      <c r="M43" s="13">
         <v>1225367</v>
       </c>
-      <c r="I43" s="13">
+      <c r="N43" s="13">
         <v>1492957</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>13</v>
+      <c r="E44" s="11">
+        <v>37527</v>
+      </c>
+      <c r="F44" s="11">
+        <v>41135</v>
       </c>
       <c r="G44" s="11">
+        <v>45530</v>
+      </c>
+      <c r="H44" s="11">
+        <v>27712</v>
+      </c>
+      <c r="I44" s="11">
+        <v>32571</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="11">
         <v>44428</v>
       </c>
-      <c r="H44" s="11">
+      <c r="M44" s="11">
         <v>49226</v>
       </c>
-      <c r="I44" s="11">
+      <c r="N44" s="11">
         <v>46307</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
+        <v>949923</v>
+      </c>
+      <c r="F45" s="13">
+        <v>1210725</v>
+      </c>
+      <c r="G45" s="13">
+        <v>1191708</v>
+      </c>
+      <c r="H45" s="13">
+        <v>767097</v>
+      </c>
+      <c r="I45" s="13">
+        <v>1302166</v>
+      </c>
+      <c r="J45" s="13">
         <v>1389214</v>
       </c>
-      <c r="F45" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N45" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="11">
+      <c r="E46" s="11">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="11">
         <v>1186516</v>
       </c>
-      <c r="G46" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
+        <v>987450</v>
+      </c>
+      <c r="F47" s="15">
+        <v>1251860</v>
+      </c>
+      <c r="G47" s="15">
+        <v>1237238</v>
+      </c>
+      <c r="H47" s="15">
+        <v>794809</v>
+      </c>
+      <c r="I47" s="15">
+        <v>1334737</v>
+      </c>
+      <c r="J47" s="15">
         <v>1389214</v>
       </c>
-      <c r="F47" s="15">
+      <c r="K47" s="15">
         <v>1186516</v>
       </c>
-      <c r="G47" s="15">
+      <c r="L47" s="15">
         <v>1307279</v>
       </c>
-      <c r="H47" s="15">
+      <c r="M47" s="15">
         <v>1794193</v>
       </c>
-      <c r="I47" s="15">
+      <c r="N47" s="15">
         <v>2355796</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -1564,10 +2114,15 @@
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
@@ -1586,78 +2141,138 @@
       <c r="I49" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="19">
+        <v>0</v>
+      </c>
+      <c r="K49" s="19">
+        <v>0</v>
+      </c>
+      <c r="L49" s="19">
+        <v>0</v>
+      </c>
+      <c r="M49" s="19">
+        <v>0</v>
+      </c>
+      <c r="N49" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D50" s="15"/>
-      <c r="E50" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>13</v>
+      <c r="E50" s="15">
+        <v>0</v>
+      </c>
+      <c r="F50" s="15">
+        <v>0</v>
+      </c>
+      <c r="G50" s="15">
+        <v>0</v>
+      </c>
+      <c r="H50" s="15">
+        <v>0</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M50" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N50" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D51" s="19"/>
-      <c r="E51" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>13</v>
+      <c r="E51" s="19">
+        <v>-96411</v>
+      </c>
+      <c r="F51" s="19">
+        <v>-92141</v>
       </c>
       <c r="G51" s="19">
+        <v>-327762</v>
+      </c>
+      <c r="H51" s="19">
+        <v>-98857</v>
+      </c>
+      <c r="I51" s="19">
+        <v>-121399</v>
+      </c>
+      <c r="J51" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="19">
         <v>-133849</v>
       </c>
-      <c r="H51" s="19">
+      <c r="M51" s="19">
         <v>-159674</v>
       </c>
-      <c r="I51" s="19">
+      <c r="N51" s="19">
         <v>-115286</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15">
+        <v>1468641</v>
+      </c>
+      <c r="F52" s="15">
+        <v>1704416</v>
+      </c>
+      <c r="G52" s="15">
+        <v>1794249</v>
+      </c>
+      <c r="H52" s="15">
+        <v>1432909</v>
+      </c>
+      <c r="I52" s="15">
+        <v>2245185</v>
+      </c>
+      <c r="J52" s="15">
         <v>1925417</v>
       </c>
-      <c r="F52" s="15">
+      <c r="K52" s="15">
         <v>3465103</v>
       </c>
-      <c r="G52" s="15">
+      <c r="L52" s="15">
         <v>2174890</v>
       </c>
-      <c r="H52" s="15">
+      <c r="M52" s="15">
         <v>2866848</v>
       </c>
-      <c r="I52" s="15">
+      <c r="N52" s="15">
         <v>3451935</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1666,8 +2281,13 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1676,8 +2296,13 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1686,10 +2311,15 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -1708,8 +2338,23 @@
       <c r="I56" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1718,10 +2363,15 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -1730,130 +2380,210 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="11">
+        <v>18</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59" s="11">
         <v>1500878</v>
       </c>
-      <c r="H59" s="11">
+      <c r="M59" s="11">
         <v>1901177</v>
       </c>
-      <c r="I59" s="11">
+      <c r="N59" s="11">
         <v>2018897</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="13">
+        <v>18</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" s="13">
         <v>951580</v>
       </c>
-      <c r="G60" s="13">
+      <c r="L60" s="13">
         <v>1126672</v>
       </c>
-      <c r="H60" s="13">
+      <c r="M60" s="13">
         <v>1197765</v>
       </c>
-      <c r="I60" s="13">
+      <c r="N60" s="13">
         <v>1175804</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
+        <v>119878</v>
+      </c>
+      <c r="F61" s="11">
+        <v>170569</v>
+      </c>
+      <c r="G61" s="11">
+        <v>188314</v>
+      </c>
+      <c r="H61" s="11">
+        <v>182083</v>
+      </c>
+      <c r="I61" s="11">
+        <v>170437</v>
+      </c>
+      <c r="J61" s="11">
         <v>247478</v>
       </c>
-      <c r="F61" s="11">
+      <c r="K61" s="11">
         <v>255331</v>
       </c>
-      <c r="G61" s="11">
+      <c r="L61" s="11">
         <v>247146</v>
       </c>
-      <c r="H61" s="11">
+      <c r="M61" s="11">
         <v>242152</v>
       </c>
-      <c r="I61" s="11">
+      <c r="N61" s="11">
         <v>282492</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
+        <v>585676</v>
+      </c>
+      <c r="F62" s="13">
+        <v>666469</v>
+      </c>
+      <c r="G62" s="13">
+        <v>953069</v>
+      </c>
+      <c r="H62" s="13">
+        <v>893835</v>
+      </c>
+      <c r="I62" s="13">
+        <v>1061569</v>
+      </c>
+      <c r="J62" s="13">
         <v>605896</v>
       </c>
-      <c r="F62" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N62" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="11">
+        <v>18</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="11">
         <v>1206617</v>
       </c>
-      <c r="G63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -1862,128 +2592,208 @@
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="11">
+        <v>18</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65" s="11">
         <v>1134629</v>
       </c>
-      <c r="H65" s="11">
+      <c r="M65" s="11">
         <v>1380692</v>
       </c>
-      <c r="I65" s="11">
+      <c r="N65" s="11">
         <v>1602639</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="13">
+        <v>18</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="13">
         <v>803045</v>
       </c>
-      <c r="G66" s="13">
+      <c r="L66" s="13">
         <v>878568</v>
       </c>
-      <c r="H66" s="13">
+      <c r="M66" s="13">
         <v>989557</v>
       </c>
-      <c r="I66" s="13">
+      <c r="N66" s="13">
         <v>1147968</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11">
+        <v>106317</v>
+      </c>
+      <c r="F67" s="11">
+        <v>146687</v>
+      </c>
+      <c r="G67" s="11">
+        <v>135353</v>
+      </c>
+      <c r="H67" s="11">
+        <v>112571</v>
+      </c>
+      <c r="I67" s="11">
+        <v>98722</v>
+      </c>
+      <c r="J67" s="11">
         <v>231492</v>
       </c>
-      <c r="F67" s="11">
+      <c r="K67" s="11">
         <v>172748</v>
       </c>
-      <c r="G67" s="11">
+      <c r="L67" s="11">
         <v>170358</v>
       </c>
-      <c r="H67" s="11">
+      <c r="M67" s="11">
         <v>226046</v>
       </c>
-      <c r="I67" s="11">
+      <c r="N67" s="11">
         <v>259368</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
+        <v>652043</v>
+      </c>
+      <c r="F68" s="13">
+        <v>337954</v>
+      </c>
+      <c r="G68" s="13">
+        <v>765127</v>
+      </c>
+      <c r="H68" s="13">
+        <v>680101</v>
+      </c>
+      <c r="I68" s="13">
+        <v>821243</v>
+      </c>
+      <c r="J68" s="13">
         <v>923049</v>
       </c>
-      <c r="F68" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N68" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="11">
+        <v>18</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" s="11">
         <v>948086</v>
       </c>
-      <c r="G69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1992,8 +2802,13 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2002,8 +2817,13 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2012,10 +2832,15 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -2034,8 +2859,23 @@
       <c r="I73" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2044,10 +2884,15 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -2056,152 +2901,247 @@
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="11">
+        <v>18</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" s="11">
         <v>-329121</v>
       </c>
-      <c r="H76" s="11">
+      <c r="M76" s="11">
         <v>-379262</v>
       </c>
-      <c r="I76" s="11">
+      <c r="N76" s="11">
         <v>-448420</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="13">
+        <v>18</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K77" s="13">
         <v>-903990</v>
       </c>
-      <c r="G77" s="13">
+      <c r="L77" s="13">
         <v>-248038</v>
       </c>
-      <c r="H77" s="13">
+      <c r="M77" s="13">
         <v>-158808</v>
       </c>
-      <c r="I77" s="13">
+      <c r="N77" s="13">
         <v>-225408</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
+        <v>-29407</v>
+      </c>
+      <c r="F78" s="11">
+        <v>-40239</v>
+      </c>
+      <c r="G78" s="11">
+        <v>-53775</v>
+      </c>
+      <c r="H78" s="11">
+        <v>-38627</v>
+      </c>
+      <c r="I78" s="11">
+        <v>-40520</v>
+      </c>
+      <c r="J78" s="11">
         <v>-36513</v>
       </c>
-      <c r="F78" s="11">
+      <c r="K78" s="11">
         <v>-96686</v>
       </c>
-      <c r="G78" s="11">
+      <c r="L78" s="11">
         <v>-66566</v>
       </c>
-      <c r="H78" s="11">
+      <c r="M78" s="11">
         <v>-76231</v>
       </c>
-      <c r="I78" s="11">
+      <c r="N78" s="11">
         <v>-84537</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
+        <v>-256982</v>
+      </c>
+      <c r="F79" s="13">
+        <v>-276956</v>
+      </c>
+      <c r="G79" s="13">
+        <v>-390016</v>
+      </c>
+      <c r="H79" s="13">
+        <v>-410874</v>
+      </c>
+      <c r="I79" s="13">
+        <v>-573953</v>
+      </c>
+      <c r="J79" s="13">
         <v>-588073</v>
       </c>
-      <c r="F79" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N79" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="11">
+      <c r="E80" s="11">
+        <v>0</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K80" s="11">
         <v>-1357616</v>
       </c>
-      <c r="G80" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N80" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15">
+        <v>-286389</v>
+      </c>
+      <c r="F81" s="15">
+        <v>-317195</v>
+      </c>
+      <c r="G81" s="15">
+        <v>-443791</v>
+      </c>
+      <c r="H81" s="15">
+        <v>-449501</v>
+      </c>
+      <c r="I81" s="15">
+        <v>-614473</v>
+      </c>
+      <c r="J81" s="15">
         <v>-624586</v>
       </c>
-      <c r="F81" s="15">
+      <c r="K81" s="15">
         <v>-2358292</v>
       </c>
-      <c r="G81" s="15">
+      <c r="L81" s="15">
         <v>-643725</v>
       </c>
-      <c r="H81" s="15">
+      <c r="M81" s="15">
         <v>-614301</v>
       </c>
-      <c r="I81" s="15">
+      <c r="N81" s="15">
         <v>-758365</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
@@ -2210,152 +3150,247 @@
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" s="11">
+        <v>18</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L83" s="11">
         <v>-248961</v>
       </c>
-      <c r="H83" s="11">
+      <c r="M83" s="11">
         <v>-389443</v>
       </c>
-      <c r="I83" s="11">
+      <c r="N83" s="11">
         <v>-515211</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="13">
+        <v>18</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J84" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" s="13">
         <v>-2377451</v>
       </c>
-      <c r="G84" s="13">
+      <c r="L84" s="13">
         <v>-635540</v>
       </c>
-      <c r="H84" s="13">
+      <c r="M84" s="13">
         <v>-943999</v>
       </c>
-      <c r="I84" s="13">
+      <c r="N84" s="13">
         <v>-1046347</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
+        <v>-19699</v>
+      </c>
+      <c r="F85" s="11">
+        <v>-18493</v>
+      </c>
+      <c r="G85" s="11">
+        <v>-36543</v>
+      </c>
+      <c r="H85" s="11">
+        <v>-23465</v>
+      </c>
+      <c r="I85" s="11">
+        <v>-22711</v>
+      </c>
+      <c r="J85" s="11">
         <v>-44661</v>
       </c>
-      <c r="F85" s="11">
+      <c r="K85" s="11">
         <v>-59333</v>
       </c>
-      <c r="G85" s="11">
+      <c r="L85" s="11">
         <v>-36223</v>
       </c>
-      <c r="H85" s="11">
+      <c r="M85" s="11">
         <v>-49165</v>
       </c>
-      <c r="I85" s="11">
+      <c r="N85" s="11">
         <v>-35482</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
+        <v>-455492</v>
+      </c>
+      <c r="F86" s="13">
+        <v>-546277</v>
+      </c>
+      <c r="G86" s="13">
+        <v>-657985</v>
+      </c>
+      <c r="H86" s="13">
+        <v>-533959</v>
+      </c>
+      <c r="I86" s="13">
+        <v>-790693</v>
+      </c>
+      <c r="J86" s="13">
         <v>-841216</v>
       </c>
-      <c r="F86" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N86" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D87" s="11"/>
-      <c r="E87" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="11">
+      <c r="E87" s="11">
+        <v>0</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" s="11">
         <v>-812865</v>
       </c>
-      <c r="G87" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I87" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N87" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15">
+        <v>-475191</v>
+      </c>
+      <c r="F88" s="15">
+        <v>-564770</v>
+      </c>
+      <c r="G88" s="15">
+        <v>-694528</v>
+      </c>
+      <c r="H88" s="15">
+        <v>-557424</v>
+      </c>
+      <c r="I88" s="15">
+        <v>-813404</v>
+      </c>
+      <c r="J88" s="15">
         <v>-885877</v>
       </c>
-      <c r="F88" s="15">
+      <c r="K88" s="15">
         <v>-3249649</v>
       </c>
-      <c r="G88" s="15">
+      <c r="L88" s="15">
         <v>-920724</v>
       </c>
-      <c r="H88" s="15">
+      <c r="M88" s="15">
         <v>-1382607</v>
       </c>
-      <c r="I88" s="15">
+      <c r="N88" s="15">
         <v>-1597040</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
@@ -2364,10 +3399,15 @@
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="18" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
@@ -2386,37 +3426,67 @@
       <c r="I90" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="19">
+        <v>0</v>
+      </c>
+      <c r="K90" s="19">
+        <v>0</v>
+      </c>
+      <c r="L90" s="19">
+        <v>0</v>
+      </c>
+      <c r="M90" s="19">
+        <v>0</v>
+      </c>
+      <c r="N90" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D91" s="15"/>
-      <c r="E91" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" s="15" t="s">
-        <v>13</v>
+      <c r="E91" s="15">
+        <v>0</v>
+      </c>
+      <c r="F91" s="15">
+        <v>0</v>
+      </c>
+      <c r="G91" s="15">
+        <v>0</v>
+      </c>
+      <c r="H91" s="15">
+        <v>0</v>
       </c>
       <c r="I91" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J91" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K91" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L91" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M91" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N91" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D92" s="19"/>
       <c r="E92" s="19">
@@ -2434,30 +3504,60 @@
       <c r="I92" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="19">
+        <v>0</v>
+      </c>
+      <c r="K92" s="19">
+        <v>0</v>
+      </c>
+      <c r="L92" s="19">
+        <v>0</v>
+      </c>
+      <c r="M92" s="19">
+        <v>0</v>
+      </c>
+      <c r="N92" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15">
+        <v>-761580</v>
+      </c>
+      <c r="F93" s="15">
+        <v>-881965</v>
+      </c>
+      <c r="G93" s="15">
+        <v>-1138319</v>
+      </c>
+      <c r="H93" s="15">
+        <v>-1006925</v>
+      </c>
+      <c r="I93" s="15">
+        <v>-1427877</v>
+      </c>
+      <c r="J93" s="15">
         <v>-1510463</v>
       </c>
-      <c r="F93" s="15">
+      <c r="K93" s="15">
         <v>-5607941</v>
       </c>
-      <c r="G93" s="15">
+      <c r="L93" s="15">
         <v>-1564449</v>
       </c>
-      <c r="H93" s="15">
+      <c r="M93" s="15">
         <v>-1996908</v>
       </c>
-      <c r="I93" s="15">
+      <c r="N93" s="15">
         <v>-2355405</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2466,8 +3566,13 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2476,8 +3581,13 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2486,10 +3596,15 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -2508,8 +3623,23 @@
       <c r="I97" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2518,10 +3648,15 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -2530,152 +3665,247 @@
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="11">
+        <v>18</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L100" s="11">
         <v>234981</v>
       </c>
-      <c r="H100" s="11">
+      <c r="M100" s="11">
         <v>412413</v>
       </c>
-      <c r="I100" s="11">
+      <c r="N100" s="11">
         <v>345277</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="13">
+        <v>18</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K101" s="13">
         <v>713691</v>
       </c>
-      <c r="G101" s="13">
+      <c r="L101" s="13">
         <v>105434</v>
       </c>
-      <c r="H101" s="13">
+      <c r="M101" s="13">
         <v>164900</v>
       </c>
-      <c r="I101" s="13">
+      <c r="N101" s="13">
         <v>71639</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
+        <v>40417</v>
+      </c>
+      <c r="F102" s="11">
+        <v>40549</v>
+      </c>
+      <c r="G102" s="11">
+        <v>14079</v>
+      </c>
+      <c r="H102" s="11">
+        <v>26277</v>
+      </c>
+      <c r="I102" s="11">
+        <v>30296</v>
+      </c>
+      <c r="J102" s="11">
         <v>7230</v>
       </c>
-      <c r="F102" s="11">
+      <c r="K102" s="11">
         <v>-7574</v>
       </c>
-      <c r="G102" s="11">
+      <c r="L102" s="11">
         <v>17320</v>
       </c>
-      <c r="H102" s="11">
+      <c r="M102" s="11">
         <v>40715</v>
       </c>
-      <c r="I102" s="11">
+      <c r="N102" s="11">
         <v>36144</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D103" s="13"/>
       <c r="E103" s="13">
+        <v>250796</v>
+      </c>
+      <c r="F103" s="13">
+        <v>186953</v>
+      </c>
+      <c r="G103" s="13">
+        <v>201565</v>
+      </c>
+      <c r="H103" s="13">
+        <v>261179</v>
+      </c>
+      <c r="I103" s="13">
+        <v>387078</v>
+      </c>
+      <c r="J103" s="13">
         <v>-51870</v>
       </c>
-      <c r="F103" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I103" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K103" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L103" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M103" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N103" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D104" s="11"/>
-      <c r="E104" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" s="11">
+      <c r="E104" s="11">
+        <v>0</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K104" s="11">
         <v>920971</v>
       </c>
-      <c r="G104" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H104" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I104" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N104" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
       <c r="E105" s="15">
+        <v>291213</v>
+      </c>
+      <c r="F105" s="15">
+        <v>227502</v>
+      </c>
+      <c r="G105" s="15">
+        <v>215644</v>
+      </c>
+      <c r="H105" s="15">
+        <v>287456</v>
+      </c>
+      <c r="I105" s="15">
+        <v>417374</v>
+      </c>
+      <c r="J105" s="15">
         <v>-44640</v>
       </c>
-      <c r="F105" s="15">
+      <c r="K105" s="15">
         <v>1627088</v>
       </c>
-      <c r="G105" s="15">
+      <c r="L105" s="15">
         <v>357735</v>
       </c>
-      <c r="H105" s="15">
+      <c r="M105" s="15">
         <v>618028</v>
       </c>
-      <c r="I105" s="15">
+      <c r="N105" s="15">
         <v>453060</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
@@ -2684,152 +3914,247 @@
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" s="11">
+        <v>18</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L107" s="11">
         <v>154959</v>
       </c>
-      <c r="H107" s="11">
+      <c r="M107" s="11">
         <v>130157</v>
       </c>
-      <c r="I107" s="11">
+      <c r="N107" s="11">
         <v>301321</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D108" s="13"/>
       <c r="E108" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" s="13">
+        <v>18</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J108" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K108" s="13">
         <v>1090227</v>
       </c>
-      <c r="G108" s="13">
+      <c r="L108" s="13">
         <v>223391</v>
       </c>
-      <c r="H108" s="13">
+      <c r="M108" s="13">
         <v>281368</v>
       </c>
-      <c r="I108" s="13">
+      <c r="N108" s="13">
         <v>446610</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
+        <v>17828</v>
+      </c>
+      <c r="F109" s="11">
+        <v>19733</v>
+      </c>
+      <c r="G109" s="11">
+        <v>8439</v>
+      </c>
+      <c r="H109" s="11">
+        <v>4247</v>
+      </c>
+      <c r="I109" s="11">
+        <v>9860</v>
+      </c>
+      <c r="J109" s="11">
         <v>13985</v>
       </c>
-      <c r="F109" s="11">
+      <c r="K109" s="11">
         <v>-19614</v>
       </c>
-      <c r="G109" s="11">
+      <c r="L109" s="11">
         <v>8205</v>
       </c>
-      <c r="H109" s="11">
+      <c r="M109" s="11">
         <v>61</v>
       </c>
-      <c r="I109" s="11">
+      <c r="N109" s="11">
         <v>10825</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D110" s="13"/>
       <c r="E110" s="13">
+        <v>494431</v>
+      </c>
+      <c r="F110" s="13">
+        <v>667357</v>
+      </c>
+      <c r="G110" s="13">
+        <v>517552</v>
+      </c>
+      <c r="H110" s="13">
+        <v>233138</v>
+      </c>
+      <c r="I110" s="13">
+        <v>511473</v>
+      </c>
+      <c r="J110" s="13">
         <v>547998</v>
       </c>
-      <c r="F110" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H110" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I110" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K110" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L110" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M110" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N110" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D111" s="11"/>
-      <c r="E111" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F111" s="11">
+      <c r="E111" s="11">
+        <v>0</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K111" s="11">
         <v>373651</v>
       </c>
-      <c r="G111" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I111" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N111" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C112" s="15"/>
       <c r="D112" s="15"/>
       <c r="E112" s="15">
+        <v>512259</v>
+      </c>
+      <c r="F112" s="15">
+        <v>687090</v>
+      </c>
+      <c r="G112" s="15">
+        <v>525991</v>
+      </c>
+      <c r="H112" s="15">
+        <v>237385</v>
+      </c>
+      <c r="I112" s="15">
+        <v>521333</v>
+      </c>
+      <c r="J112" s="15">
         <v>561983</v>
       </c>
-      <c r="F112" s="15">
+      <c r="K112" s="15">
         <v>1444264</v>
       </c>
-      <c r="G112" s="15">
+      <c r="L112" s="15">
         <v>386555</v>
       </c>
-      <c r="H112" s="15">
+      <c r="M112" s="15">
         <v>411586</v>
       </c>
-      <c r="I112" s="15">
+      <c r="N112" s="15">
         <v>758756</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -2838,10 +4163,15 @@
       <c r="G113" s="17"/>
       <c r="H113" s="17"/>
       <c r="I113" s="17"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C114" s="19"/>
       <c r="D114" s="19"/>
@@ -2860,26 +4190,56 @@
       <c r="I114" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J114" s="19">
+        <v>0</v>
+      </c>
+      <c r="K114" s="19">
+        <v>0</v>
+      </c>
+      <c r="L114" s="19">
+        <v>0</v>
+      </c>
+      <c r="M114" s="19">
+        <v>0</v>
+      </c>
+      <c r="N114" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
       <c r="E115" s="15">
+        <v>803472</v>
+      </c>
+      <c r="F115" s="15">
+        <v>914592</v>
+      </c>
+      <c r="G115" s="15">
+        <v>741635</v>
+      </c>
+      <c r="H115" s="15">
+        <v>524841</v>
+      </c>
+      <c r="I115" s="15">
+        <v>938707</v>
+      </c>
+      <c r="J115" s="15">
         <v>517343</v>
       </c>
-      <c r="F115" s="15">
+      <c r="K115" s="15">
         <v>3071352</v>
       </c>
-      <c r="G115" s="15">
+      <c r="L115" s="15">
         <v>744290</v>
       </c>
-      <c r="H115" s="15">
+      <c r="M115" s="15">
         <v>1029614</v>
       </c>
-      <c r="I115" s="15">
+      <c r="N115" s="15">
         <v>1211816</v>
       </c>
     </row>

--- a/database/industries/kashi/kesave/product/quarterly_seprated.xlsx
+++ b/database/industries/kashi/kesave/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E930ABD-EC4E-43A8-B5EA-560ED47CEA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB262C5B-8001-46F6-B38A-5E35986AA910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -673,12 +673,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -693,7 +693,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -710,7 +710,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -727,7 +727,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -742,7 +742,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -759,7 +759,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -776,7 +776,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -791,7 +791,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -828,7 +828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -843,7 +843,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -860,7 +860,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -899,7 +899,7 @@
         <v>393134</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -938,7 +938,7 @@
         <v>252633</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -977,7 +977,7 @@
         <v>427202</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>22</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>23</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>24</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>1072969</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>25</v>
       </c>
@@ -1109,7 +1109,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>509492</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>19</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>1300521</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>20</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>178538</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>22</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>23</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>26</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>1988551</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>27</v>
       </c>
@@ -1358,7 +1358,7 @@
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="18" t="s">
         <v>28</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>29</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>31</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>32</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>3061520</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1523,7 +1523,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1538,7 +1538,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1553,7 +1553,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>33</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1605,7 +1605,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>34</v>
       </c>
@@ -1622,7 +1622,7 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>16</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>793697</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>19</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>297047</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>20</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>120681</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>22</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>23</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
         <v>24</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>1211425</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>36</v>
       </c>
@@ -1871,7 +1871,7 @@
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>16</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>816532</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>19</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>1492957</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>20</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>46307</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>22</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>23</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>26</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>2355796</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="16" t="s">
         <v>37</v>
       </c>
@@ -2120,7 +2120,7 @@
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="18" t="s">
         <v>28</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="14" t="s">
         <v>29</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="18" t="s">
         <v>31</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>-115286</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="14" t="s">
         <v>32</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>3451935</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2287,7 +2287,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2302,7 +2302,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2317,7 +2317,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>38</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2369,7 +2369,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>39</v>
       </c>
@@ -2386,7 +2386,7 @@
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>2018897</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>19</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>1175804</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>20</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>282492</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>22</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>23</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>42</v>
       </c>
@@ -2598,7 +2598,7 @@
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>16</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>1602639</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>19</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>1147968</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>20</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>259368</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>22</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>23</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2808,7 +2808,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2823,7 +2823,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2838,7 +2838,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
         <v>43</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2890,7 +2890,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>44</v>
       </c>
@@ -2907,7 +2907,7 @@
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>16</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>-448420</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>19</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>-225408</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>20</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>-84537</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>22</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>23</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="14" t="s">
         <v>45</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>-758365</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>46</v>
       </c>
@@ -3156,7 +3156,7 @@
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>16</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>-515211</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="12" t="s">
         <v>19</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>-1046347</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>20</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>-35482</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>22</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>23</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="14" t="s">
         <v>47</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>-1597040</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="16" t="s">
         <v>48</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="M89" s="17"/>
       <c r="N89" s="17"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="18" t="s">
         <v>49</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="14" t="s">
         <v>29</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="18" t="s">
         <v>31</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>32</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>-2355405</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3572,7 +3572,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3587,7 +3587,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3602,7 +3602,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>50</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3654,7 +3654,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>51</v>
       </c>
@@ -3671,7 +3671,7 @@
       <c r="M99" s="9"/>
       <c r="N99" s="9"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>16</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>345277</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>19</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>71639</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>20</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>36144</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="12" t="s">
         <v>22</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>23</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="14" t="s">
         <v>52</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>453060</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>53</v>
       </c>
@@ -3920,7 +3920,7 @@
       <c r="M106" s="9"/>
       <c r="N106" s="9"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>16</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>301321</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>19</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>446610</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>20</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>10825</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="12" t="s">
         <v>22</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>23</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="14" t="s">
         <v>54</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>758756</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="16" t="s">
         <v>55</v>
       </c>
@@ -4169,7 +4169,7 @@
       <c r="M113" s="17"/>
       <c r="N113" s="17"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="18" t="s">
         <v>56</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="14" t="s">
         <v>32</v>
       </c>
